--- a/Progres Report/CSD2550_Contribution Formula_FirstSubmission.xlsx
+++ b/Progres Report/CSD2550_Contribution Formula_FirstSubmission.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jovanielawrence/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CourseWork 2/Progres Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Group Size 3" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -597,13 +597,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="9">
-        <v>0.34</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E8" s="9">
-        <v>0.33</v>
+        <f t="shared" ref="E8:F12" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F8" s="9">
-        <v>0.33</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G8" t="str">
         <f>IF(SUM(D8:F8)&lt;&gt;1,IF(SUM(D8:F8)=0, "Not implemented", "Error"),"Ok")</f>
@@ -622,16 +625,19 @@
         <v>0</v>
       </c>
       <c r="D9" s="9">
-        <v>0.33</v>
+        <f t="shared" ref="D9:D12" si="1">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E9" s="9">
-        <v>0.34</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F9" s="9">
-        <v>0.33</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" ref="G9:G12" si="0">IF(SUM(D9:F9)&lt;&gt;1,IF(SUM(D9:F9)=0, "Not implemented", "Error"),"Ok")</f>
+        <f t="shared" ref="G9:G12" si="2">IF(SUM(D9:F9)&lt;&gt;1,IF(SUM(D9:F9)=0, "Not implemented", "Error"),"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="H9" s="2"/>
@@ -647,16 +653,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="9">
-        <v>0.33</v>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E10" s="9">
-        <v>0.33</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F10" s="9">
-        <v>0.34</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="H10" s="2"/>
@@ -672,16 +681,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="9">
-        <v>0.33</v>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E11" s="9">
-        <v>0.33</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F11" s="9">
-        <v>0.34</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
     </row>
@@ -696,16 +708,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="9">
-        <v>0.33</v>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E12" s="9">
-        <v>0.33</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F12" s="9">
-        <v>0.34</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
     </row>
